--- a/Code/Results/Cases/Case_5_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9907846933287203</v>
+        <v>0.8699934474986151</v>
       </c>
       <c r="C2">
-        <v>0.1189864774987228</v>
+        <v>0.09993956321301312</v>
       </c>
       <c r="D2">
-        <v>0.04374997252563873</v>
+        <v>0.01606691811157646</v>
       </c>
       <c r="E2">
-        <v>0.05189033385263286</v>
+        <v>0.0903083688686479</v>
       </c>
       <c r="F2">
-        <v>7.096020122547458</v>
+        <v>5.46564429882747</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2836037778631209</v>
+        <v>0.2594876274752238</v>
       </c>
       <c r="K2">
-        <v>1.017013882773256</v>
+        <v>0.8912979301010182</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8638194522162053</v>
+        <v>0.8491418512581674</v>
       </c>
       <c r="C3">
-        <v>0.1018783934993053</v>
+        <v>0.09828364450071092</v>
       </c>
       <c r="D3">
-        <v>0.03745180627212008</v>
+        <v>0.01618851453865489</v>
       </c>
       <c r="E3">
-        <v>0.04611140139090608</v>
+        <v>0.09047103471660378</v>
       </c>
       <c r="F3">
-        <v>6.405658329261939</v>
+        <v>5.267556758085618</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2532863540175896</v>
+        <v>0.2525470512218817</v>
       </c>
       <c r="K3">
-        <v>0.8836136151630001</v>
+        <v>0.8712170596343753</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.788071375093125</v>
+        <v>0.837153390624195</v>
       </c>
       <c r="C4">
-        <v>0.09176551405673194</v>
+        <v>0.09740540495499772</v>
       </c>
       <c r="D4">
-        <v>0.03371604587396249</v>
+        <v>0.01631623572668417</v>
       </c>
       <c r="E4">
-        <v>0.04273120044365086</v>
+        <v>0.09065840970483663</v>
       </c>
       <c r="F4">
-        <v>5.989510357149953</v>
+        <v>5.14657211899015</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2351262461477006</v>
+        <v>0.2484037763693294</v>
       </c>
       <c r="K4">
-        <v>0.8041696058173216</v>
+        <v>0.8597948119226544</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7576977269721397</v>
+        <v>0.8324722751296179</v>
       </c>
       <c r="C5">
-        <v>0.08773110199760481</v>
+        <v>0.09708217566191024</v>
       </c>
       <c r="D5">
-        <v>0.03222136153244293</v>
+        <v>0.01638145929879187</v>
       </c>
       <c r="E5">
-        <v>0.0413921248634459</v>
+        <v>0.09075674096193609</v>
       </c>
       <c r="F5">
-        <v>5.821606172594841</v>
+        <v>5.097426765661993</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2278272180897147</v>
+        <v>0.2467449465623304</v>
       </c>
       <c r="K5">
-        <v>0.772345868138018</v>
+        <v>0.8553676606780414</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7526823750995106</v>
+        <v>0.8317073021636077</v>
       </c>
       <c r="C6">
-        <v>0.08706610188805541</v>
+        <v>0.09703059227217636</v>
       </c>
       <c r="D6">
-        <v>0.03197469371148287</v>
+        <v>0.01639308057734468</v>
       </c>
       <c r="E6">
-        <v>0.04117198385089083</v>
+        <v>0.0907743952135931</v>
       </c>
       <c r="F6">
-        <v>5.793819899810643</v>
+        <v>5.089275559796164</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2266209828053007</v>
+        <v>0.2464712818516972</v>
       </c>
       <c r="K6">
-        <v>0.7670928916342632</v>
+        <v>0.8546462567322806</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.787659820920112</v>
+        <v>0.8370894330472254</v>
       </c>
       <c r="C7">
-        <v>0.09171076841961678</v>
+        <v>0.09740090565323101</v>
       </c>
       <c r="D7">
-        <v>0.0336957827480866</v>
+        <v>0.01631706222480389</v>
       </c>
       <c r="E7">
-        <v>0.04271299066147449</v>
+        <v>0.09065964689702</v>
       </c>
       <c r="F7">
-        <v>5.987239477505227</v>
+        <v>5.145908698422176</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2350274148765408</v>
+        <v>0.2483812852031662</v>
       </c>
       <c r="K7">
-        <v>0.8037382785210525</v>
+        <v>0.8597341855507636</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9465099495381253</v>
+        <v>0.8626344308600551</v>
       </c>
       <c r="C8">
-        <v>0.1129988785010312</v>
+        <v>0.09933975414928398</v>
       </c>
       <c r="D8">
-        <v>0.04154772557033581</v>
+        <v>0.01609773145055371</v>
       </c>
       <c r="E8">
-        <v>0.04986041729477719</v>
+        <v>0.09034627862548561</v>
       </c>
       <c r="F8">
-        <v>6.856209914750792</v>
+        <v>5.397207680379722</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2730476935505948</v>
+        <v>0.2570698762937838</v>
       </c>
       <c r="K8">
-        <v>0.9704622091819033</v>
+        <v>0.8841852675648738</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.278635114022421</v>
+        <v>0.9192199988748371</v>
       </c>
       <c r="C9">
-        <v>0.1584512148363046</v>
+        <v>0.1042489042386734</v>
       </c>
       <c r="D9">
-        <v>0.05825738790816359</v>
+        <v>0.01609618782170941</v>
       </c>
       <c r="E9">
-        <v>0.06540686590415845</v>
+        <v>0.09042750438568348</v>
       </c>
       <c r="F9">
-        <v>8.635037368251261</v>
+        <v>5.895328064028433</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.351872261759965</v>
+        <v>0.2750545855681992</v>
       </c>
       <c r="K9">
-        <v>1.320469009375671</v>
+        <v>0.9393705433125774</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.540115713031611</v>
+        <v>0.964798845848037</v>
       </c>
       <c r="C10">
-        <v>0.1950619857573059</v>
+        <v>0.1085426937193148</v>
       </c>
       <c r="D10">
-        <v>0.07176058476450464</v>
+        <v>0.01636684744834582</v>
       </c>
       <c r="E10">
-        <v>0.07807420454298253</v>
+        <v>0.09091373834473515</v>
       </c>
       <c r="F10">
-        <v>10.00862718920354</v>
+        <v>6.264898806538895</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4134248664272349</v>
+        <v>0.2888577489137987</v>
       </c>
       <c r="K10">
-        <v>1.597244926934735</v>
+        <v>0.9843847241737933</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.664148945721593</v>
+        <v>0.9864146321399687</v>
       </c>
       <c r="C11">
-        <v>0.2126703762381936</v>
+        <v>0.1106479643104024</v>
       </c>
       <c r="D11">
-        <v>0.0782821763170034</v>
+        <v>0.01655128841516529</v>
       </c>
       <c r="E11">
-        <v>0.0841897895992858</v>
+        <v>0.09122813009206254</v>
       </c>
       <c r="F11">
-        <v>10.65348544254073</v>
+        <v>6.433887887222625</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4424890560125476</v>
+        <v>0.2952681591441291</v>
       </c>
       <c r="K11">
-        <v>1.728885096514517</v>
+        <v>1.005846633160559</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.711974117056229</v>
+        <v>0.994727555308657</v>
       </c>
       <c r="C12">
-        <v>0.2195006483761262</v>
+        <v>0.1114672482124774</v>
       </c>
       <c r="D12">
-        <v>0.08081727291273211</v>
+        <v>0.01663013704994398</v>
       </c>
       <c r="E12">
-        <v>0.08656450392511772</v>
+        <v>0.09136062820130775</v>
       </c>
       <c r="F12">
-        <v>10.90108728576809</v>
+        <v>6.49801045641442</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4536743797147409</v>
+        <v>0.2977147015141668</v>
       </c>
       <c r="K12">
-        <v>1.779702215644676</v>
+        <v>1.014116281974168</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.701633822065162</v>
+        <v>0.9929315368530069</v>
       </c>
       <c r="C13">
-        <v>0.2180219624641211</v>
+        <v>0.1112898161570257</v>
       </c>
       <c r="D13">
-        <v>0.08026818742141728</v>
+        <v>0.01661275208623891</v>
       </c>
       <c r="E13">
-        <v>0.08605030609984254</v>
+        <v>0.09133149370796545</v>
       </c>
       <c r="F13">
-        <v>10.84760094649499</v>
+        <v>6.484194647867582</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4512569816545096</v>
+        <v>0.2971869442582431</v>
       </c>
       <c r="K13">
-        <v>1.768712278680624</v>
+        <v>1.012328913499488</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.668065601875497</v>
+        <v>0.9870959820738392</v>
       </c>
       <c r="C14">
-        <v>0.2132288945799274</v>
+        <v>0.1107149239084464</v>
       </c>
       <c r="D14">
-        <v>0.07848935822423186</v>
+        <v>0.01655759378833466</v>
       </c>
       <c r="E14">
-        <v>0.08438392808987416</v>
+        <v>0.09123876108847995</v>
       </c>
       <c r="F14">
-        <v>10.67378417889103</v>
+        <v>6.439160653637202</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4434055199670013</v>
+        <v>0.295469054633088</v>
       </c>
       <c r="K14">
-        <v>1.733045556094112</v>
+        <v>1.006524121277721</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.647619672385844</v>
+        <v>0.9835381609123033</v>
       </c>
       <c r="C15">
-        <v>0.2103149603553049</v>
+        <v>0.1103656653198613</v>
       </c>
       <c r="D15">
-        <v>0.07740866084508724</v>
+        <v>0.01652498603363028</v>
       </c>
       <c r="E15">
-        <v>0.08337115175681831</v>
+        <v>0.0911837118782941</v>
       </c>
       <c r="F15">
-        <v>10.56777727309128</v>
+        <v>6.411593121777173</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.438620478174002</v>
+        <v>0.2944192851358309</v>
       </c>
       <c r="K15">
-        <v>1.711329322438019</v>
+        <v>1.002987101509376</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532122465347101</v>
+        <v>0.9634040056863284</v>
       </c>
       <c r="C16">
-        <v>0.1939324970585119</v>
+        <v>0.1084081855217107</v>
       </c>
       <c r="D16">
-        <v>0.07134291392244307</v>
+        <v>0.0163560436380763</v>
       </c>
       <c r="E16">
-        <v>0.0776823075950368</v>
+        <v>0.09089507115394824</v>
       </c>
       <c r="F16">
-        <v>9.966930480366273</v>
+        <v>6.253872898396367</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4115490273586602</v>
+        <v>0.2884414706377356</v>
       </c>
       <c r="K16">
-        <v>1.588769084118127</v>
+        <v>0.9830020284994987</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.462654524526585</v>
+        <v>0.9512786805746885</v>
       </c>
       <c r="C17">
-        <v>0.1841434486405831</v>
+        <v>0.1072464118677487</v>
       </c>
       <c r="D17">
-        <v>0.06772617150761562</v>
+        <v>0.01626824049620978</v>
       </c>
       <c r="E17">
-        <v>0.07428822602566143</v>
+        <v>0.09074190028682594</v>
       </c>
       <c r="F17">
-        <v>9.603809504572069</v>
+        <v>6.157342912812396</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3952316121505248</v>
+        <v>0.2848080270490954</v>
       </c>
       <c r="K17">
-        <v>1.515146374968424</v>
+        <v>0.9709946701609056</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.423168478150359</v>
+        <v>0.9443874646823929</v>
       </c>
       <c r="C18">
-        <v>0.1786011219077324</v>
+        <v>0.1065924851836257</v>
       </c>
       <c r="D18">
-        <v>0.06568083476812347</v>
+        <v>0.01622349853077054</v>
       </c>
       <c r="E18">
-        <v>0.072368730500731</v>
+        <v>0.09066257037889613</v>
       </c>
       <c r="F18">
-        <v>9.396799068671186</v>
+        <v>6.101902953871587</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3859445920195697</v>
+        <v>0.2827305122229404</v>
       </c>
       <c r="K18">
-        <v>1.47333046761446</v>
+        <v>0.9641809884464863</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.409876387511417</v>
+        <v>0.9420684431736674</v>
       </c>
       <c r="C19">
-        <v>0.1767390067996928</v>
+        <v>0.1063735257952771</v>
       </c>
       <c r="D19">
-        <v>0.06499400602056937</v>
+        <v>0.01620933328221241</v>
       </c>
       <c r="E19">
-        <v>0.07172420946216462</v>
+        <v>0.09063721560834992</v>
       </c>
       <c r="F19">
-        <v>9.327011138170121</v>
+        <v>6.083145787751249</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.382816309721278</v>
+        <v>0.2820292163578131</v>
       </c>
       <c r="K19">
-        <v>1.459259302444821</v>
+        <v>0.9618898761129628</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.470000003818683</v>
+        <v>0.9525608520705759</v>
       </c>
       <c r="C20">
-        <v>0.1851762239951853</v>
+        <v>0.107368603724467</v>
       </c>
       <c r="D20">
-        <v>0.06810749132620941</v>
+        <v>0.01627698979154957</v>
       </c>
       <c r="E20">
-        <v>0.07464609364503616</v>
+        <v>0.09075729763073426</v>
       </c>
       <c r="F20">
-        <v>9.64226956645777</v>
+        <v>6.16761021965155</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3969582732149775</v>
+        <v>0.2851935342772833</v>
       </c>
       <c r="K20">
-        <v>1.522927820547864</v>
+        <v>0.9722632804257785</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.677901065725621</v>
+        <v>0.9888065601285234</v>
       </c>
       <c r="C21">
-        <v>0.2146321080705604</v>
+        <v>0.1108831832359982</v>
       </c>
       <c r="D21">
-        <v>0.07900996939970639</v>
+        <v>0.01657354922404153</v>
       </c>
       <c r="E21">
-        <v>0.08487171523847792</v>
+        <v>0.09126563367233587</v>
       </c>
       <c r="F21">
-        <v>10.72474127171773</v>
+        <v>6.452384658763776</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4457065875753159</v>
+        <v>0.2959731217367505</v>
       </c>
       <c r="K21">
-        <v>1.743494219905614</v>
+        <v>1.008225255150791</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.818840911296491</v>
+        <v>1.013238698459958</v>
       </c>
       <c r="C22">
-        <v>0.2348442719457893</v>
+        <v>0.113308866412055</v>
       </c>
       <c r="D22">
-        <v>0.08652359599306436</v>
+        <v>0.01681994346724736</v>
       </c>
       <c r="E22">
-        <v>0.091902607316662</v>
+        <v>0.09167624802801555</v>
       </c>
       <c r="F22">
-        <v>11.45236779029688</v>
+        <v>6.63926176364663</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.478626970897281</v>
+        <v>0.3031293833486188</v>
       </c>
       <c r="K22">
-        <v>1.893371366314682</v>
+        <v>1.032559451972588</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.743108810187323</v>
+        <v>1.000130541618233</v>
       </c>
       <c r="C23">
-        <v>0.2239593290371005</v>
+        <v>0.1120023882722734</v>
       </c>
       <c r="D23">
-        <v>0.08247381707361967</v>
+        <v>0.01668356509231472</v>
       </c>
       <c r="E23">
-        <v>0.08811525191405067</v>
+        <v>0.09144990848888668</v>
       </c>
       <c r="F23">
-        <v>11.06197827399876</v>
+        <v>6.539450662569266</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4609499353039439</v>
+        <v>0.2992997182290793</v>
       </c>
       <c r="K23">
-        <v>1.812802119671829</v>
+        <v>1.019495500402741</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.466677713984808</v>
+        <v>0.9519809338463006</v>
       </c>
       <c r="C24">
-        <v>0.1847090417074924</v>
+        <v>0.1073133172176881</v>
       </c>
       <c r="D24">
-        <v>0.06793499161694427</v>
+        <v>0.01627301637891776</v>
       </c>
       <c r="E24">
-        <v>0.07448420321720661</v>
+        <v>0.0907503093025781</v>
       </c>
       <c r="F24">
-        <v>9.624876352519948</v>
+        <v>6.162968194887242</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3961773586549668</v>
+        <v>0.2850192109636112</v>
       </c>
       <c r="K24">
-        <v>1.519408248620806</v>
+        <v>0.9716894629924866</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.18611013130726</v>
+        <v>0.9032122313034563</v>
       </c>
       <c r="C25">
-        <v>0.1456672081830277</v>
+        <v>0.1028010900065368</v>
       </c>
       <c r="D25">
-        <v>0.05355570971116208</v>
+        <v>0.01604964208171822</v>
       </c>
       <c r="E25">
-        <v>0.06100746798753676</v>
+        <v>0.090330802844516</v>
       </c>
       <c r="F25">
-        <v>8.143785875204713</v>
+        <v>5.759966764273514</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.329991739706557</v>
+        <v>0.2700866115771703</v>
       </c>
       <c r="K25">
-        <v>1.222781804001073</v>
+        <v>0.9236608224030647</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8699934474986151</v>
+        <v>0.9907846933289477</v>
       </c>
       <c r="C2">
-        <v>0.09993956321301312</v>
+        <v>0.1189864774991634</v>
       </c>
       <c r="D2">
-        <v>0.01606691811157646</v>
+        <v>0.04374997252556057</v>
       </c>
       <c r="E2">
-        <v>0.0903083688686479</v>
+        <v>0.05189033385267194</v>
       </c>
       <c r="F2">
-        <v>5.46564429882747</v>
+        <v>7.096020122547515</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2594876274752238</v>
+        <v>0.2836037778633624</v>
       </c>
       <c r="K2">
-        <v>0.8912979301010182</v>
+        <v>1.017013882772972</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8491418512581674</v>
+        <v>0.8638194522160063</v>
       </c>
       <c r="C3">
-        <v>0.09828364450071092</v>
+        <v>0.1018783934983674</v>
       </c>
       <c r="D3">
-        <v>0.01618851453865489</v>
+        <v>0.03745180627193889</v>
       </c>
       <c r="E3">
-        <v>0.09047103471660378</v>
+        <v>0.04611140139092029</v>
       </c>
       <c r="F3">
-        <v>5.267556758085618</v>
+        <v>6.405658329261911</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2525470512218817</v>
+        <v>0.2532863540175612</v>
       </c>
       <c r="K3">
-        <v>0.8712170596343753</v>
+        <v>0.8836136151628864</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.837153390624195</v>
+        <v>0.7880713750930681</v>
       </c>
       <c r="C4">
-        <v>0.09740540495499772</v>
+        <v>0.09176551405703037</v>
       </c>
       <c r="D4">
-        <v>0.01631623572668417</v>
+        <v>0.03371604587368537</v>
       </c>
       <c r="E4">
-        <v>0.09065840970483663</v>
+        <v>0.0427312004436402</v>
       </c>
       <c r="F4">
-        <v>5.14657211899015</v>
+        <v>5.98951035715001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2484037763693294</v>
+        <v>0.2351262461476011</v>
       </c>
       <c r="K4">
-        <v>0.8597948119226544</v>
+        <v>0.8041696058170942</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8324722751296179</v>
+        <v>0.7576977269721397</v>
       </c>
       <c r="C5">
-        <v>0.09708217566191024</v>
+        <v>0.08773110199743428</v>
       </c>
       <c r="D5">
-        <v>0.01638145929879187</v>
+        <v>0.03222136153313571</v>
       </c>
       <c r="E5">
-        <v>0.09075674096193609</v>
+        <v>0.04139212486350985</v>
       </c>
       <c r="F5">
-        <v>5.097426765661993</v>
+        <v>5.821606172594841</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2467449465623304</v>
+        <v>0.2278272180898995</v>
       </c>
       <c r="K5">
-        <v>0.8553676606780414</v>
+        <v>0.772345868138018</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8317073021636077</v>
+        <v>0.7526823750996243</v>
       </c>
       <c r="C6">
-        <v>0.09703059227217636</v>
+        <v>0.08706610188815489</v>
       </c>
       <c r="D6">
-        <v>0.01639308057734468</v>
+        <v>0.03197469371132655</v>
       </c>
       <c r="E6">
-        <v>0.0907743952135931</v>
+        <v>0.04117198385088727</v>
       </c>
       <c r="F6">
-        <v>5.089275559796164</v>
+        <v>5.7938198998107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2464712818516972</v>
+        <v>0.2266209828054571</v>
       </c>
       <c r="K6">
-        <v>0.8546462567322806</v>
+        <v>0.7670928916340358</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8370894330472254</v>
+        <v>0.7876598209199983</v>
       </c>
       <c r="C7">
-        <v>0.09740090565323101</v>
+        <v>0.09171076841963099</v>
       </c>
       <c r="D7">
-        <v>0.01631706222480389</v>
+        <v>0.03369578274850582</v>
       </c>
       <c r="E7">
-        <v>0.09065964689702</v>
+        <v>0.0427129906615491</v>
       </c>
       <c r="F7">
-        <v>5.145908698422176</v>
+        <v>5.987239477505256</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2483812852031662</v>
+        <v>0.2350274148765266</v>
       </c>
       <c r="K7">
-        <v>0.8597341855507636</v>
+        <v>0.8037382785211094</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8626344308600551</v>
+        <v>0.9465099495381253</v>
       </c>
       <c r="C8">
-        <v>0.09933975414928398</v>
+        <v>0.1129988785010596</v>
       </c>
       <c r="D8">
-        <v>0.01609773145055371</v>
+        <v>0.04154772557059161</v>
       </c>
       <c r="E8">
-        <v>0.09034627862548561</v>
+        <v>0.04986041729486246</v>
       </c>
       <c r="F8">
-        <v>5.397207680379722</v>
+        <v>6.856209914750821</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2570698762937838</v>
+        <v>0.2730476935505379</v>
       </c>
       <c r="K8">
-        <v>0.8841852675648738</v>
+        <v>0.9704622091821022</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9192199988748371</v>
+        <v>1.278635114022848</v>
       </c>
       <c r="C9">
-        <v>0.1042489042386734</v>
+        <v>0.1584512148364041</v>
       </c>
       <c r="D9">
-        <v>0.01609618782170941</v>
+        <v>0.05825738790780122</v>
       </c>
       <c r="E9">
-        <v>0.09042750438568348</v>
+        <v>0.06540686590420108</v>
       </c>
       <c r="F9">
-        <v>5.895328064028433</v>
+        <v>8.635037368251119</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2750545855681992</v>
+        <v>0.3518722617598655</v>
       </c>
       <c r="K9">
-        <v>0.9393705433125774</v>
+        <v>1.320469009375643</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.964798845848037</v>
+        <v>1.540115713031582</v>
       </c>
       <c r="C10">
-        <v>0.1085426937193148</v>
+        <v>0.1950619857578175</v>
       </c>
       <c r="D10">
-        <v>0.01636684744834582</v>
+        <v>0.07176058476434122</v>
       </c>
       <c r="E10">
-        <v>0.09091373834473515</v>
+        <v>0.07807420454307135</v>
       </c>
       <c r="F10">
-        <v>6.264898806538895</v>
+        <v>10.00862718920342</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2888577489137987</v>
+        <v>0.413424866427377</v>
       </c>
       <c r="K10">
-        <v>0.9843847241737933</v>
+        <v>1.597244926934763</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9864146321399687</v>
+        <v>1.664148945721109</v>
       </c>
       <c r="C11">
-        <v>0.1106479643104024</v>
+        <v>0.2126703762363604</v>
       </c>
       <c r="D11">
-        <v>0.01655128841516529</v>
+        <v>0.07828217631698919</v>
       </c>
       <c r="E11">
-        <v>0.09122813009206254</v>
+        <v>0.08418978959927159</v>
       </c>
       <c r="F11">
-        <v>6.433887887222625</v>
+        <v>10.65348544254073</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2952681591441291</v>
+        <v>0.4424890560125903</v>
       </c>
       <c r="K11">
-        <v>1.005846633160559</v>
+        <v>1.72888509651446</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.994727555308657</v>
+        <v>1.711974117056343</v>
       </c>
       <c r="C12">
-        <v>0.1114672482124774</v>
+        <v>0.2195006483765525</v>
       </c>
       <c r="D12">
-        <v>0.01663013704994398</v>
+        <v>0.08081727291266816</v>
       </c>
       <c r="E12">
-        <v>0.09136062820130775</v>
+        <v>0.08656450392507153</v>
       </c>
       <c r="F12">
-        <v>6.49801045641442</v>
+        <v>10.90108728576814</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2977147015141668</v>
+        <v>0.453674379714613</v>
       </c>
       <c r="K12">
-        <v>1.014116281974168</v>
+        <v>1.779702215644789</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9929315368530069</v>
+        <v>1.701633822065475</v>
       </c>
       <c r="C13">
-        <v>0.1112898161570257</v>
+        <v>0.2180219624641353</v>
       </c>
       <c r="D13">
-        <v>0.01661275208623891</v>
+        <v>0.0802681874217086</v>
       </c>
       <c r="E13">
-        <v>0.09133149370796545</v>
+        <v>0.08605030609979636</v>
       </c>
       <c r="F13">
-        <v>6.484194647867582</v>
+        <v>10.84760094649494</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2971869442582431</v>
+        <v>0.451256981654609</v>
       </c>
       <c r="K13">
-        <v>1.012328913499488</v>
+        <v>1.768712278680482</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9870959820738392</v>
+        <v>1.668065601875838</v>
       </c>
       <c r="C14">
-        <v>0.1107149239084464</v>
+        <v>0.2132288945794443</v>
       </c>
       <c r="D14">
-        <v>0.01655759378833466</v>
+        <v>0.07848935822396896</v>
       </c>
       <c r="E14">
-        <v>0.09123876108847995</v>
+        <v>0.08438392808997719</v>
       </c>
       <c r="F14">
-        <v>6.439160653637202</v>
+        <v>10.67378417889125</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.295469054633088</v>
+        <v>0.443405519966916</v>
       </c>
       <c r="K14">
-        <v>1.006524121277721</v>
+        <v>1.733045556094112</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9835381609123033</v>
+        <v>1.647619672385815</v>
       </c>
       <c r="C15">
-        <v>0.1103656653198613</v>
+        <v>0.2103149603552907</v>
       </c>
       <c r="D15">
-        <v>0.01652498603363028</v>
+        <v>0.07740866084552067</v>
       </c>
       <c r="E15">
-        <v>0.0911837118782941</v>
+        <v>0.0833711517568716</v>
       </c>
       <c r="F15">
-        <v>6.411593121777173</v>
+        <v>10.56777727309128</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2944192851358309</v>
+        <v>0.4386204781739593</v>
       </c>
       <c r="K15">
-        <v>1.002987101509376</v>
+        <v>1.711329322437962</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9634040056863284</v>
+        <v>1.532122465347385</v>
       </c>
       <c r="C16">
-        <v>0.1084081855217107</v>
+        <v>0.1939324970586398</v>
       </c>
       <c r="D16">
-        <v>0.0163560436380763</v>
+        <v>0.07134291392233649</v>
       </c>
       <c r="E16">
-        <v>0.09089507115394824</v>
+        <v>0.07768230759491956</v>
       </c>
       <c r="F16">
-        <v>6.253872898396367</v>
+        <v>9.96693048036613</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2884414706377356</v>
+        <v>0.4115490273585749</v>
       </c>
       <c r="K16">
-        <v>0.9830020284994987</v>
+        <v>1.588769084118184</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9512786805746885</v>
+        <v>1.46265452452667</v>
       </c>
       <c r="C17">
-        <v>0.1072464118677487</v>
+        <v>0.1841434486409668</v>
       </c>
       <c r="D17">
-        <v>0.01626824049620978</v>
+        <v>0.06772617150749483</v>
       </c>
       <c r="E17">
-        <v>0.09074190028682594</v>
+        <v>0.07428822602578222</v>
       </c>
       <c r="F17">
-        <v>6.157342912812396</v>
+        <v>9.603809504572155</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2848080270490954</v>
+        <v>0.3952316121505106</v>
       </c>
       <c r="K17">
-        <v>0.9709946701609056</v>
+        <v>1.515146374968538</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9443874646823929</v>
+        <v>1.423168478150615</v>
       </c>
       <c r="C18">
-        <v>0.1065924851836257</v>
+        <v>0.1786011219072634</v>
       </c>
       <c r="D18">
-        <v>0.01622349853077054</v>
+        <v>0.06568083476756925</v>
       </c>
       <c r="E18">
-        <v>0.09066257037889613</v>
+        <v>0.07236873050068837</v>
       </c>
       <c r="F18">
-        <v>6.101902953871587</v>
+        <v>9.396799068671271</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2827305122229404</v>
+        <v>0.385944592019726</v>
       </c>
       <c r="K18">
-        <v>0.9641809884464863</v>
+        <v>1.473330467614716</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9420684431736674</v>
+        <v>1.40987638751119</v>
       </c>
       <c r="C19">
-        <v>0.1063735257952771</v>
+        <v>0.1767390067991386</v>
       </c>
       <c r="D19">
-        <v>0.01620933328221241</v>
+        <v>0.06499400602068306</v>
       </c>
       <c r="E19">
-        <v>0.09063721560834992</v>
+        <v>0.07172420946222502</v>
       </c>
       <c r="F19">
-        <v>6.083145787751249</v>
+        <v>9.327011138170235</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2820292163578131</v>
+        <v>0.3828163097212922</v>
       </c>
       <c r="K19">
-        <v>0.9618898761129628</v>
+        <v>1.459259302444764</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9525608520705759</v>
+        <v>1.470000003818427</v>
       </c>
       <c r="C20">
-        <v>0.107368603724467</v>
+        <v>0.1851762239947163</v>
       </c>
       <c r="D20">
-        <v>0.01627698979154957</v>
+        <v>0.06810749132597493</v>
       </c>
       <c r="E20">
-        <v>0.09075729763073426</v>
+        <v>0.07464609364490116</v>
       </c>
       <c r="F20">
-        <v>6.16761021965155</v>
+        <v>9.642269566457827</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2851935342772833</v>
+        <v>0.3969582732151622</v>
       </c>
       <c r="K20">
-        <v>0.9722632804257785</v>
+        <v>1.52292782054792</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9888065601285234</v>
+        <v>1.677901065725706</v>
       </c>
       <c r="C21">
-        <v>0.1108831832359982</v>
+        <v>0.2146321080705036</v>
       </c>
       <c r="D21">
-        <v>0.01657354922404153</v>
+        <v>0.07900996939965665</v>
       </c>
       <c r="E21">
-        <v>0.09126563367233587</v>
+        <v>0.08487171523857029</v>
       </c>
       <c r="F21">
-        <v>6.452384658763776</v>
+        <v>10.72474127171796</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2959731217367505</v>
+        <v>0.4457065875753017</v>
       </c>
       <c r="K21">
-        <v>1.008225255150791</v>
+        <v>1.743494219905472</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.013238698459958</v>
+        <v>1.818840911296746</v>
       </c>
       <c r="C22">
-        <v>0.113308866412055</v>
+        <v>0.2348442719453203</v>
       </c>
       <c r="D22">
-        <v>0.01681994346724736</v>
+        <v>0.0865235959928583</v>
       </c>
       <c r="E22">
-        <v>0.09167624802801555</v>
+        <v>0.09190260731665845</v>
       </c>
       <c r="F22">
-        <v>6.63926176364663</v>
+        <v>11.45236779029693</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3031293833486188</v>
+        <v>0.4786269708970678</v>
       </c>
       <c r="K22">
-        <v>1.032559451972588</v>
+        <v>1.893371366314824</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000130541618233</v>
+        <v>1.743108810187351</v>
       </c>
       <c r="C23">
-        <v>0.1120023882722734</v>
+        <v>0.2239593290371147</v>
       </c>
       <c r="D23">
-        <v>0.01668356509231472</v>
+        <v>0.08247381707361967</v>
       </c>
       <c r="E23">
-        <v>0.09144990848888668</v>
+        <v>0.08811525191405067</v>
       </c>
       <c r="F23">
-        <v>6.539450662569266</v>
+        <v>11.06197827399876</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2992997182290793</v>
+        <v>0.4609499353040576</v>
       </c>
       <c r="K23">
-        <v>1.019495500402741</v>
+        <v>1.812802119671858</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9519809338463006</v>
+        <v>1.46667771398478</v>
       </c>
       <c r="C24">
-        <v>0.1073133172176881</v>
+        <v>0.1847090417082882</v>
       </c>
       <c r="D24">
-        <v>0.01627301637891776</v>
+        <v>0.06793499161725691</v>
       </c>
       <c r="E24">
-        <v>0.0907503093025781</v>
+        <v>0.07448420321714622</v>
       </c>
       <c r="F24">
-        <v>6.162968194887242</v>
+        <v>9.624876352520175</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2850192109636112</v>
+        <v>0.3961773586548105</v>
       </c>
       <c r="K24">
-        <v>0.9716894629924866</v>
+        <v>1.519408248620834</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9032122313034563</v>
+        <v>1.186110131307061</v>
       </c>
       <c r="C25">
-        <v>0.1028010900065368</v>
+        <v>0.1456672081830135</v>
       </c>
       <c r="D25">
-        <v>0.01604964208171822</v>
+        <v>0.05355570971111234</v>
       </c>
       <c r="E25">
-        <v>0.090330802844516</v>
+        <v>0.06100746798748347</v>
       </c>
       <c r="F25">
-        <v>5.759966764273514</v>
+        <v>8.143785875204799</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2700866115771703</v>
+        <v>0.3299917397065286</v>
       </c>
       <c r="K25">
-        <v>0.9236608224030647</v>
+        <v>1.222781804000874</v>
       </c>
       <c r="L25">
         <v>0</v>
